--- a/test/outputs/result.xlsx
+++ b/test/outputs/result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/StudioProjects/chord/test/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29171758-F2B5-C54D-84D8-5EC1BB493F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFCC1B9-F4FE-8E44-9777-BD0496C49863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20940" xr2:uid="{A07BFBB5-0E6F-3340-9E63-CB6FD7E32489}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="16560" windowHeight="20940" activeTab="1" xr2:uid="{A07BFBB5-0E6F-3340-9E63-CB6FD7E32489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10945" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10977" uniqueCount="195">
   <si>
     <t>G</t>
   </si>
@@ -558,6 +559,219 @@
   <si>
     <t>search + reassignment, ratio: 0.5, chunkSize: 8192, chunkStride: 0, sampleRate: 22050</t>
   </si>
+  <si>
+    <t>想定されうるパターン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンマッチング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索木</t>
+    <rPh sb="0" eb="3">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コムフィルタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2ノルム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然対数スケール</t>
+    <rPh sb="0" eb="2">
+      <t>シゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談事項</t>
+  </si>
+  <si>
+    <t>コムフィルタの分散値</t>
+  </si>
+  <si>
+    <t>STFTの値を対数スケールにするべきかどうか</t>
+  </si>
+  <si>
+    <t>今後の方針</t>
+  </si>
+  <si>
+    <t>中間発表までにすること</t>
+  </si>
+  <si>
+    <t>Am7 C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Am7b5, Cm6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルート音推定</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">オン </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倍音成分を低減</t>
+    <rPh sb="0" eb="4">
+      <t>バイオn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル,パワーポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学外発表</t>
+    <rPh sb="0" eb="4">
+      <t>ガクガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上さんの論文を参照する</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ロンブn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドにラベルをつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軸タイトル</t>
+    <rPh sb="0" eb="1">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音源ごとにラベルをつける</t>
+    <rPh sb="0" eb="2">
+      <t>オンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法ごとのグラフを作る</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法ごとの特徴を述べる時にグラフを使う</t>
+    <rPh sb="0" eb="1">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノベル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキニ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法と音源ごとのグラフ</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフは多すぎない</t>
+    <rPh sb="4" eb="5">
+      <t>オオスギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主張したいことを元にグラフを作る</t>
+    <rPh sb="0" eb="2">
+      <t>シュチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパース+平均律ビン</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ヘイキンリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパース+コムフィルタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習</t>
+    <rPh sb="0" eb="4">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonサーバを作る。これ自体は難しくないので、モデルを考える</t>
+    <rPh sb="10" eb="11">
+      <t>ツクル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムズカシク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,11 +836,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14265,8 +14488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27357D29-D512-7B46-A1FF-1544F030A752}">
   <dimension ref="B2:CI537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="AQ50" sqref="AQ50"/>
+    <sheetView topLeftCell="AK1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AP50" sqref="AP50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -56339,4 +56562,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57784FEF-BD9E-1E40-9223-8322E3AE3C4C}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/outputs/result.xlsx
+++ b/test/outputs/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/StudioProjects/chord/test/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40B73E-3B27-C846-BE12-D825A308A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74A7BE-EFCD-C04F-A778-9EA5C7EE46B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="1220" windowWidth="16560" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="1020" windowWidth="22720" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7035,18 +7035,38 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>自然対数</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7069,15 +7089,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7147,15 +7158,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7225,15 +7227,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7303,15 +7296,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7390,35 +7374,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -7438,47 +7399,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -7491,29 +7422,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -7523,21 +7437,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7566,18 +7465,39 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7600,15 +7520,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7678,15 +7589,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7756,15 +7658,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7834,15 +7727,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -7921,35 +7805,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -7969,47 +7830,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -8022,29 +7853,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -8054,21 +7868,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -8097,18 +7896,31 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8131,15 +7943,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8209,15 +8012,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8287,15 +8081,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8365,15 +8150,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8452,35 +8228,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -8500,47 +8253,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -8553,29 +8276,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -8585,21 +8291,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -8628,18 +8319,31 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8662,15 +8366,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8740,15 +8435,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8818,15 +8504,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8896,15 +8573,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -8983,35 +8651,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -9031,47 +8676,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -9084,29 +8699,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -9116,21 +8714,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9159,18 +8742,30 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9193,15 +8788,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9253,7 +8839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68C8-534D-A90D-ADD39472287E}"/>
+              <c16:uniqueId val="{00000001-19D0-C642-8624-E627B08F8086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9271,15 +8857,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9331,7 +8908,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-68C8-534D-A90D-ADD39472287E}"/>
+              <c16:uniqueId val="{00000003-19D0-C642-8624-E627B08F8086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9349,15 +8926,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9409,7 +8977,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-68C8-534D-A90D-ADD39472287E}"/>
+              <c16:uniqueId val="{00000005-19D0-C642-8624-E627B08F8086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9427,15 +8995,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9487,7 +9046,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-68C8-534D-A90D-ADD39472287E}"/>
+              <c16:uniqueId val="{00000007-19D0-C642-8624-E627B08F8086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9514,35 +9073,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -9562,47 +9098,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -9615,29 +9121,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -9647,21 +9136,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9690,18 +9164,30 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9724,15 +9210,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9784,7 +9261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B43-D443-9CD5-BDDA7BAA95E4}"/>
+              <c16:uniqueId val="{00000001-D851-984C-A900-9B4F18EC950F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9802,15 +9279,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9862,7 +9330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3B43-D443-9CD5-BDDA7BAA95E4}"/>
+              <c16:uniqueId val="{00000003-D851-984C-A900-9B4F18EC950F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9880,15 +9348,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -9940,7 +9399,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3B43-D443-9CD5-BDDA7BAA95E4}"/>
+              <c16:uniqueId val="{00000005-D851-984C-A900-9B4F18EC950F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9958,15 +9417,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10018,7 +9468,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3B43-D443-9CD5-BDDA7BAA95E4}"/>
+              <c16:uniqueId val="{00000007-D851-984C-A900-9B4F18EC950F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10045,35 +9495,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -10093,47 +9520,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -10146,29 +9543,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -10178,21 +9558,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -10221,18 +9586,23 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10255,15 +9625,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10333,15 +9694,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10411,15 +9763,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10489,15 +9832,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10576,35 +9910,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -10624,47 +9935,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -10677,29 +9958,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -10709,21 +9973,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -10752,18 +10001,39 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平均律</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10786,15 +10056,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10864,15 +10125,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -10942,15 +10194,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11020,15 +10263,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11107,35 +10341,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11155,47 +10366,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11208,29 +10389,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -11240,21 +10404,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -11283,18 +10432,23 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>マッチング</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -11317,15 +10471,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11395,15 +10540,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11473,15 +10609,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11551,15 +10678,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11638,35 +10756,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11686,47 +10781,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11739,29 +10804,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -11771,21 +10819,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -11814,18 +10847,31 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -11848,15 +10894,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -11926,15 +10963,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -12004,15 +11032,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -12082,15 +11101,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -12169,35 +11179,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -12217,47 +11204,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -12270,29 +11227,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -12302,21 +11242,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -12345,7 +11270,18 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -12876,7 +11812,18 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -13279,20 +12226,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14123,8 +13057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:DW805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="34" workbookViewId="0">
-      <selection activeCell="DS18" sqref="DS18"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BW6" sqref="BW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19369,7 +18303,7 @@
         <v>0.57307692307692304</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(AQ19:AT19)</f>
         <v>0.6990384615384615</v>
       </c>
       <c r="AY19">

--- a/test/outputs/result.xlsx
+++ b/test/outputs/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/StudioProjects/chord/test/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74A7BE-EFCD-C04F-A778-9EA5C7EE46B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC562F-D933-B240-A479-BB447BF3B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1020" windowWidth="22720" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="880" windowWidth="22720" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7483,860 +7505,6 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$CU$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Halion_CleanGuitarVX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$CU$6:$CU$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$CV$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Halion_CleanStratGuitar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$CV$6:$CV$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$CW$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HojoGuitar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$CW$6:$CW$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$CX$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RealStrat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$CX$6:$CX$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="562789280"/>
-        <c:axId val="562552640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="562789280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="562552640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="562552640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="562789280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$DC$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Halion_CleanGuitarVX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$DC$6:$DC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$DD$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Halion_CleanStratGuitar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$DD$6:$DD$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$DE$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HojoGuitar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$DE$6:$DE$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$DF$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RealStrat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$DF$6:$DF$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-957B-FD4E-89C3-19ABF8D5D807}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="562789280"/>
-        <c:axId val="562552640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="562789280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="562552640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="562552640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="562789280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>自然対数</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP"/>
@@ -8625,6 +7793,843 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-957B-FD4E-89C3-19ABF8D5D807}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="562789280"/>
+        <c:axId val="562552640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="562789280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562552640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562552640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562789280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コムフィルタ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Halion_CleanGuitarVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CE$6:$CE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Halion_CleanStratGuitar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CF$6:$CF$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CG$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HojoGuitar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$6:$CG$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RealStrat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CH$6:$CH$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="562789280"/>
+        <c:axId val="562552640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="562789280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562552640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562552640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562789280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>探索木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平均律</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Halion_CleanGuitarVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CM$6:$CM$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CN$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Halion_CleanStratGuitar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CN$6:$CN$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CO$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HojoGuitar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CO$6:$CO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A792-344E-9F52-546B4A196469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RealStrat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CP$6:$CP$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A792-344E-9F52-546B4A196469}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11280,19 +11285,29 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スパース</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>コムフィルタ</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -11306,7 +11321,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CE$5</c:f>
+              <c:f>Sheet1!$CU$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11315,19 +11330,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CE$6:$CE$18</c:f>
+              <c:f>Sheet1!$CU$6:$CU$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -11335,40 +11341,40 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11384,7 +11390,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CF$5</c:f>
+              <c:f>Sheet1!$CV$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11393,19 +11399,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CF$6:$CF$18</c:f>
+              <c:f>Sheet1!$CV$6:$CV$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -11413,40 +11410,40 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11462,7 +11459,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CG$5</c:f>
+              <c:f>Sheet1!$CW$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11471,60 +11468,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CG$6:$CG$18</c:f>
+              <c:f>Sheet1!$CW$6:$CW$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11540,7 +11528,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CH$5</c:f>
+              <c:f>Sheet1!$CX$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11549,60 +11537,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CH$6:$CH$18</c:f>
+              <c:f>Sheet1!$CX$6:$CX$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11636,35 +11615,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11684,47 +11640,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -11737,29 +11663,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -11769,21 +11678,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -11822,19 +11716,21 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
+              <a:t>コムフィルタ</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自然対数</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -11848,7 +11744,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CM$5</c:f>
+              <c:f>Sheet1!$DC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11857,60 +11753,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CM$6:$CM$18</c:f>
+              <c:f>Sheet1!$DC$6:$DC$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11926,7 +11813,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CN$5</c:f>
+              <c:f>Sheet1!$DD$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11935,60 +11822,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CN$6:$CN$18</c:f>
+              <c:f>Sheet1!$DD$6:$DD$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12004,7 +11882,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CO$5</c:f>
+              <c:f>Sheet1!$DE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12013,60 +11891,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CO$6:$CO$18</c:f>
+              <c:f>Sheet1!$DE$6:$DE$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12082,7 +11951,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CP$5</c:f>
+              <c:f>Sheet1!$DF$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12091,60 +11960,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CP$6:$CP$18</c:f>
+              <c:f>Sheet1!$DF$6:$DF$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12178,35 +12038,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -12231,29 +12068,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
@@ -12266,29 +12086,12 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -12298,21 +12101,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -12577,78 +12365,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>533086</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>64223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>731321</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>199065</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>576002</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19554</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>774238</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>154396</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F0307D-3881-B005-32FC-F29EBB4841D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>640815</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -12677,7 +12393,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12713,7 +12429,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12738,6 +12454,78 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320547AA-2524-37C8-F843-4D5B27854AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>485789</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>684024</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>192934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751C96FB-34D5-D835-FB72-D659E41F6644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>561989</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>747524</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>192934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EB8573-70D2-51D8-DEC0-4F737333F789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13057,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:DW805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BW6" sqref="BW6"/>
+    <sheetView tabSelected="1" topLeftCell="DI1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="DK19" sqref="DK19:DO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17994,7 +17782,7 @@
       <c r="BF18">
         <v>13</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" cm="1">
         <f t="array" ref="BG18">INDEX($X:$X,2+BF$3+($AB$3 + 1)*(ROW()-6))</f>
         <v>0.15</v>
       </c>
@@ -18303,7 +18091,7 @@
         <v>0.57307692307692304</v>
       </c>
       <c r="AU19">
-        <f>AVERAGE(AQ19:AT19)</f>
+        <f t="shared" si="2"/>
         <v>0.6990384615384615</v>
       </c>
       <c r="AY19">
